--- a/data/intent_emotion_mapping_COPD.xlsx
+++ b/data/intent_emotion_mapping_COPD.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">q1_asthma_difficulties</t>
+    <t xml:space="preserve">q_0_coughing</t>
   </si>
   <si>
     <t xml:space="preserve">engaged</t>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">q2_hyperventilation</t>
+    <t xml:space="preserve">q_1_sputum</t>
   </si>
   <si>
     <t xml:space="preserve">worry</t>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">q3_sleeping_difficulty</t>
+    <t xml:space="preserve">q_2_chest_tightness</t>
   </si>
   <si>
     <t xml:space="preserve">MAIN-SIT_1-R_Likesth</t>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">q4_inhaler_use</t>
+    <t xml:space="preserve">q_3_breathlessness</t>
   </si>
   <si>
     <t xml:space="preserve">MAIN-SIT_1-R_Thanksfor3</t>
@@ -136,7 +136,16 @@
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">q5_asthma_control_degree</t>
+    <t xml:space="preserve">q_4_difficulty_moving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q_5_traveling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q_6_sleep_difficulty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q_7_level_energy</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
@@ -262,16 +271,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="55.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="55.27"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="8.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="26.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.41"/>
@@ -598,11 +607,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -611,7 +617,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>5</v>
@@ -620,7 +626,7 @@
         <v>80</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>5</v>
@@ -633,46 +639,40 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -681,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>5</v>
@@ -699,6 +699,111 @@
         <v>80</v>
       </c>
       <c r="K12" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="K15" s="2" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/intent_emotion_mapping_COPD.xlsx
+++ b/data/intent_emotion_mapping_COPD.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -139,28 +139,37 @@
     <t xml:space="preserve">q_4_difficulty_moving</t>
   </si>
   <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
     <t xml:space="preserve">q_5_traveling</t>
   </si>
   <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
     <t xml:space="preserve">q_6_sleep_difficulty</t>
   </si>
   <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
     <t xml:space="preserve">q_7_level_energy</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
+    <t xml:space="preserve">11</t>
   </si>
   <si>
     <t xml:space="preserve">closing</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
+    <t xml:space="preserve">12</t>
   </si>
   <si>
     <t xml:space="preserve">emergency_help</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
+    <t xml:space="preserve">13</t>
   </si>
   <si>
     <t xml:space="preserve">confused_patient_handling</t>
@@ -274,7 +283,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12:K12"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -607,8 +616,11 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -639,8 +651,11 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
@@ -671,8 +686,11 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -704,10 +722,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -739,10 +757,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -774,10 +792,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>

--- a/data/intent_emotion_mapping_COPD.xlsx
+++ b/data/intent_emotion_mapping_COPD.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t xml:space="preserve">nb</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t xml:space="preserve">confused_patient_handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy-next-question-id</t>
   </si>
 </sst>
 </file>
@@ -280,10 +286,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:A15"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -825,6 +831,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
